--- a/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220526.xlsx
+++ b/Crawling/music/crawled_data/match_artist_agency/artist_agency_20220526.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="610">
   <si>
     <t>가수</t>
   </si>
@@ -1290,6 +1290,9 @@
     <t>BLUEVINYL</t>
   </si>
   <si>
+    <t>백예린(Yerin Baek)</t>
+  </si>
+  <si>
     <t>Sondia</t>
   </si>
   <si>
@@ -1795,6 +1798,48 @@
   </si>
   <si>
     <t>에피톤 프로젝트(Epitone Project)</t>
+  </si>
+  <si>
+    <t>수지</t>
+  </si>
+  <si>
+    <t>Soop</t>
+  </si>
+  <si>
+    <t>Fun.(펀.)</t>
+  </si>
+  <si>
+    <t>러브홀릭스(Loveholics)</t>
+  </si>
+  <si>
+    <t>Fluxus Music</t>
+  </si>
+  <si>
+    <t>HYNN(박혜원)</t>
+  </si>
+  <si>
+    <t>월드스타</t>
+  </si>
+  <si>
+    <t>라붐(LABOUM)</t>
+  </si>
+  <si>
+    <t>인터파크 뮤직 플러스</t>
+  </si>
+  <si>
+    <t>신예영</t>
+  </si>
+  <si>
+    <t>거북이</t>
+  </si>
+  <si>
+    <t>소나무</t>
+  </si>
+  <si>
+    <t>알리 (ALi)</t>
+  </si>
+  <si>
+    <t>소울스팅</t>
   </si>
   <si>
     <t>가수명</t>
@@ -2264,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4">
-        <v>44706.0</v>
+        <v>44707.0</v>
       </c>
     </row>
     <row r="2">
@@ -5931,7 +5976,7 @@
         <v>420</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>12</v>
@@ -5959,7 +6004,7 @@
         <v>422</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>12</v>
@@ -5970,10 +6015,10 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>12</v>
@@ -5987,7 +6032,7 @@
         <v>425</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>12</v>
@@ -6001,7 +6046,7 @@
         <v>426</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>12</v>
@@ -6012,10 +6057,10 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>12</v>
@@ -6026,10 +6071,10 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>12</v>
@@ -6043,10 +6088,10 @@
         <v>431</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E325" s="13"/>
       <c r="F325" s="13"/>
@@ -6057,10 +6102,10 @@
         <v>432</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E326" s="13"/>
       <c r="F326" s="13"/>
@@ -6071,7 +6116,7 @@
         <v>433</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>12</v>
@@ -6082,7 +6127,7 @@
         <v>434</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>12</v>
@@ -6093,7 +6138,7 @@
         <v>435</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>436</v>
+        <v>44</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>12</v>
@@ -6101,10 +6146,10 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
@@ -6112,10 +6157,10 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>12</v>
@@ -6123,10 +6168,10 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>12</v>
@@ -6148,7 +6193,7 @@
         <v>443</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>444</v>
+        <v>44</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>12</v>
@@ -6156,10 +6201,10 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B335" s="14" t="s">
-        <v>446</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>12</v>
@@ -6167,13 +6212,13 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B336" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C336" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337">
@@ -6181,10 +6226,10 @@
         <v>448</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="338">
@@ -6192,7 +6237,7 @@
         <v>449</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
@@ -6200,10 +6245,10 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>12</v>
@@ -6211,10 +6256,10 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
@@ -6222,10 +6267,10 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>12</v>
@@ -6236,7 +6281,7 @@
         <v>456</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>457</v>
+        <v>44</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>12</v>
@@ -6244,10 +6289,10 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>12</v>
@@ -6258,7 +6303,7 @@
         <v>459</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>12</v>
@@ -6267,10 +6312,10 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>12</v>
@@ -6279,10 +6324,10 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>12</v>
@@ -6291,10 +6336,10 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>12</v>
@@ -6303,10 +6348,10 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>12</v>
@@ -6318,7 +6363,7 @@
         <v>468</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>12</v>
@@ -6327,13 +6372,13 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C350" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D350" s="2"/>
     </row>
@@ -6342,10 +6387,10 @@
         <v>471</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D351" s="2"/>
     </row>
@@ -6354,10 +6399,10 @@
         <v>472</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="D352" s="2"/>
     </row>
@@ -6366,10 +6411,10 @@
         <v>473</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="D353" s="2"/>
     </row>
@@ -6436,7 +6481,7 @@
         <v>479</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>12</v>
@@ -6447,7 +6492,7 @@
         <v>480</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>12</v>
@@ -6458,10 +6503,10 @@
         <v>481</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362">
@@ -6469,10 +6514,10 @@
         <v>482</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363">
@@ -6480,9 +6525,9 @@
         <v>483</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C363" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6491,7 +6536,7 @@
         <v>484</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>12</v>
@@ -6535,7 +6580,7 @@
         <v>488</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>489</v>
+        <v>26</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>12</v>
@@ -6543,12 +6588,12 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6557,7 +6602,7 @@
         <v>491</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>492</v>
+        <v>12</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>12</v>
@@ -6565,10 +6610,10 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>12</v>
@@ -6590,7 +6635,7 @@
         <v>495</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>496</v>
+        <v>44</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>12</v>
@@ -6598,10 +6643,10 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>12</v>
@@ -6612,7 +6657,7 @@
         <v>498</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>12</v>
@@ -6623,7 +6668,7 @@
         <v>499</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>500</v>
+        <v>258</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>12</v>
@@ -6631,10 +6676,10 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>12</v>
@@ -6656,10 +6701,10 @@
         <v>503</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380">
@@ -6667,10 +6712,10 @@
         <v>504</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="381">
@@ -6678,10 +6723,10 @@
         <v>505</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382">
@@ -6689,18 +6734,18 @@
         <v>506</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>12</v>
@@ -6711,7 +6756,7 @@
         <v>509</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>44</v>
+        <v>298</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>12</v>
@@ -6722,7 +6767,7 @@
         <v>510</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>12</v>
@@ -6733,7 +6778,7 @@
         <v>511</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>12</v>
@@ -6755,10 +6800,10 @@
         <v>513</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -6766,10 +6811,10 @@
         <v>514</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -6810,7 +6855,7 @@
         <v>518</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>12</v>
@@ -6821,25 +6866,25 @@
         <v>519</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C395" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="2" t="s">
+      <c r="A396" s="15" t="s">
         <v>521</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -6850,11 +6895,11 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="A397" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>12</v>
@@ -6862,10 +6907,10 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>12</v>
@@ -6876,7 +6921,7 @@
         <v>525</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>343</v>
+        <v>44</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>12</v>
@@ -6887,7 +6932,7 @@
         <v>526</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>12</v>
@@ -6895,10 +6940,10 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>12</v>
@@ -6920,7 +6965,7 @@
         <v>530</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>12</v>
@@ -6931,7 +6976,7 @@
         <v>531</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>532</v>
+        <v>12</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>12</v>
@@ -6939,10 +6984,10 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>12</v>
@@ -6997,10 +7042,10 @@
         <v>538</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411">
@@ -7008,18 +7053,18 @@
         <v>539</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>540</v>
+        <v>178</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>12</v>
@@ -7030,7 +7075,7 @@
         <v>542</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>12</v>
@@ -7041,10 +7086,10 @@
         <v>543</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415">
@@ -7052,18 +7097,18 @@
         <v>544</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>545</v>
+        <v>178</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>12</v>
@@ -7074,7 +7119,7 @@
         <v>547</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>548</v>
+        <v>44</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>12</v>
@@ -7082,10 +7127,10 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>12</v>
@@ -7096,7 +7141,7 @@
         <v>550</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>12</v>
@@ -7107,7 +7152,7 @@
         <v>551</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>12</v>
@@ -7118,7 +7163,7 @@
         <v>552</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>553</v>
+        <v>147</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>12</v>
@@ -7126,10 +7171,10 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>12</v>
@@ -7140,7 +7185,7 @@
         <v>555</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>12</v>
@@ -7151,10 +7196,10 @@
         <v>556</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>298</v>
+        <v>12</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="425">
@@ -7162,10 +7207,10 @@
         <v>557</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>12</v>
+        <v>298</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="426">
@@ -7173,7 +7218,7 @@
         <v>558</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>12</v>
@@ -7186,7 +7231,7 @@
       <c r="B427" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C427" s="1" t="s">
+      <c r="C427" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7195,10 +7240,10 @@
         <v>560</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429">
@@ -7206,18 +7251,18 @@
         <v>561</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>562</v>
+        <v>178</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>12</v>
@@ -7228,7 +7273,7 @@
         <v>564</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>565</v>
+        <v>44</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>12</v>
@@ -7236,10 +7281,10 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>12</v>
@@ -7250,35 +7295,32 @@
         <v>567</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>568</v>
+        <v>53</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E433" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="C434" s="1" t="s">
-        <v>570</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C435" s="1" t="s">
-        <v>12</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436">
@@ -7286,7 +7328,7 @@
         <v>572</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>12</v>
@@ -7308,7 +7350,7 @@
         <v>574</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>12</v>
@@ -7319,10 +7361,10 @@
         <v>575</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>15</v>
+        <v>391</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440">
@@ -7330,10 +7372,10 @@
         <v>576</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441">
@@ -7341,7 +7383,7 @@
         <v>577</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>578</v>
+        <v>12</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>12</v>
@@ -7349,10 +7391,10 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>12</v>
@@ -7363,7 +7405,7 @@
         <v>580</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>12</v>
+        <v>579</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>12</v>
@@ -7396,7 +7438,7 @@
         <v>583</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>584</v>
+        <v>12</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>12</v>
@@ -7404,10 +7446,10 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>12</v>
@@ -7418,7 +7460,7 @@
         <v>586</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>12</v>
@@ -7429,7 +7471,7 @@
         <v>587</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>423</v>
+        <v>165</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>12</v>
@@ -7440,59 +7482,124 @@
         <v>588</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C450" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="15"/>
-      <c r="B451" s="16"/>
+      <c r="C451" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="452">
-      <c r="A452" s="15"/>
-      <c r="B452" s="16"/>
+      <c r="A452" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="453">
-      <c r="A453" s="15"/>
-      <c r="B453" s="16"/>
+      <c r="A453" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="454">
-      <c r="A454" s="15"/>
-      <c r="B454" s="16"/>
+      <c r="A454" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="455">
-      <c r="A455" s="16"/>
-      <c r="B455" s="16"/>
+      <c r="A455" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="456">
-      <c r="A456" s="16"/>
-      <c r="B456" s="16"/>
+      <c r="A456" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="457">
-      <c r="A457" s="16"/>
-      <c r="B457" s="16"/>
+      <c r="A457" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="458">
-      <c r="A458" s="16"/>
-      <c r="B458" s="16"/>
+      <c r="A458" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="459">
-      <c r="A459" s="16"/>
-      <c r="B459" s="16"/>
+      <c r="A459" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="460">
-      <c r="A460" s="16"/>
+      <c r="A460" s="1"/>
       <c r="B460" s="16"/>
     </row>
     <row r="461">
-      <c r="A461" s="16"/>
       <c r="B461" s="16"/>
     </row>
     <row r="462">
       <c r="A462" s="16"/>
       <c r="B462" s="16"/>
+      <c r="E462" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="16"/>
@@ -9649,7 +9756,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:G14"/>
-    <mergeCell ref="E433:G444"/>
+    <mergeCell ref="E462:G473"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9673,16 +9780,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -9699,7 +9806,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -10417,16 +10524,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -10443,7 +10550,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -11587,16 +11694,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -11613,7 +11720,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -12064,7 +12171,7 @@
         <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
@@ -12226,7 +12333,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>44</v>
@@ -12614,16 +12721,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E1" s="18">
         <v>44679.0</v>
@@ -12640,7 +12747,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3">
@@ -13322,7 +13429,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>12</v>
@@ -13476,16 +13583,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="E1" s="26">
         <v>44679.0</v>
@@ -13524,7 +13631,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5">
